--- a/掲示板外部設計.xlsx
+++ b/掲示板外部設計.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="2" r:id="rId1"/>
     <sheet name="項目定義" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>一覧</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +147,126 @@
   </si>
   <si>
     <t>画面名：文章入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規スレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名無し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名：スレッド作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者識別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopicId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContributorId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreteTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nvarchar(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nvarchar(80)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Varchar(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContributorName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -508,13 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,6 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -851,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,7 +1005,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
@@ -896,7 +1020,7 @@
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5"/>
@@ -920,7 +1044,7 @@
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
@@ -944,7 +1068,7 @@
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5"/>
@@ -968,7 +1092,7 @@
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5"/>
@@ -992,7 +1116,7 @@
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5"/>
@@ -1016,7 +1140,7 @@
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5"/>
@@ -1040,7 +1164,7 @@
     <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="5"/>
@@ -1061,221 +1185,213 @@
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
-      <c r="C26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
-      <c r="C33" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="9"/>
+    <row r="37" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1283,175 +1399,379 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="25" t="s">
+        <v>1</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I43" s="30"/>
+      <c r="J43" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C45" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
+      <c r="C51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
+      <c r="C52" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="5"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="23" t="s">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="4"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="23" t="s">
+      <c r="H74" s="24"/>
+      <c r="I74" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="9"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C26:I30"/>
-    <mergeCell ref="C33:I38"/>
+    <mergeCell ref="C45:I49"/>
+    <mergeCell ref="C52:I57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,4 +1824,208 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="str">
+        <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
+        <v>1B8EC3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="39" t="str">
+        <f>E13</f>
+        <v>2017/3/11  10:54:10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="str">
+        <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
+        <v>6C0C79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="39" t="str">
+        <f>E14</f>
+        <v>2017/3/11  11:00:40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f ca="1">A4</f>
+        <v>1B8EC3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="38" t="str">
+        <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
+        <v>82E7EC</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"2017/3/11  10:54:10"</f>
+        <v>2017/3/11  10:54:10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f ca="1">A5</f>
+        <v>6C0C79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="38" t="str">
+        <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
+        <v>448904</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"2017/3/11  11:00:40"</f>
+        <v>2017/3/11  11:00:40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/掲示板外部設計.xlsx
+++ b/掲示板外部設計.xlsx
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新時間</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,6 +263,10 @@
   </si>
   <si>
     <t>ContributorName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -657,15 +657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1436,61 +1436,61 @@
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -1519,70 +1519,70 @@
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
       <c r="J57" s="9"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1852,65 +1852,65 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="str">
+      <c r="A4" s="36" t="str">
         <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
-        <v>1B8EC3</v>
+        <v>3CAE94</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="39" t="str">
+      <c r="C4" s="37" t="str">
         <f>E13</f>
         <v>2017/3/11  10:54:10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="str">
+      <c r="A5" s="36" t="str">
         <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
-        <v>6C0C79</v>
+        <v>5918F1</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="39" t="str">
+      <c r="C5" s="37" t="str">
         <f>E14</f>
         <v>2017/3/11  11:00:40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I9" s="40"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1919,16 +1919,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1939,35 +1939,35 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f ca="1">A4</f>
-        <v>1B8EC3</v>
+        <v>3CAE94</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="38" t="str">
+      <c r="C13" s="36" t="str">
         <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
-        <v>82E7EC</v>
+        <v>53D437</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1983,14 +1983,14 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f ca="1">A5</f>
-        <v>6C0C79</v>
+        <v>5918F1</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="36" t="str">
         <f ca="1">DEC2HEX(INT(RAND()*10000000))</f>
-        <v>448904</v>
+        <v>5E8F88</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2005,22 +2005,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
